--- a/merise/rebellion_manager/TP Galaxies.xlsx
+++ b/merise/rebellion_manager/TP Galaxies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arfpasso-my.sharepoint.com/personal/fturleque_arfp_asso_fr/Documents/Documents/CDA/Mine TP Galaxies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\CDA_2111\merise\rebellion_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1377" documentId="11_AD4D9D64A577C15A4A5418D880DF534E5ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE96D6F-17D6-4D10-B9D3-764D25BA4CB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A06AB2-162A-41F9-A12A-5A4BC2DE840E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="136">
   <si>
     <t>Entitée</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Identifiant de l'objet céleste</t>
   </si>
   <si>
-    <t>Type de l'objet céleste (Etoile, planète, satélite)</t>
-  </si>
-  <si>
     <t>Solar_systems</t>
   </si>
   <si>
@@ -490,6 +487,18 @@
   </si>
   <si>
     <t>Type de l'objet céleste (planète, satélite)</t>
+  </si>
+  <si>
+    <t>Clé primaire auto-incrémenté</t>
+  </si>
+  <si>
+    <t>vitesse max du vaisseau "Année lumière"</t>
+  </si>
+  <si>
+    <t>ship_name</t>
+  </si>
+  <si>
+    <t>Nom du vaisseau</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2551,18 +2560,66 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2593,53 +2650,113 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2662,112 +2779,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3050,11 +3068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,20 +3113,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="372" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2" s="284" t="s">
         <v>17</v>
@@ -3121,9 +3139,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="355"/>
+      <c r="A3" s="361"/>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>10</v>
@@ -3145,12 +3163,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
+      <c r="A4" s="361"/>
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>9</v>
@@ -3165,43 +3183,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
-      <c r="B5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="361"/>
+      <c r="B5" s="427" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="428" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="428" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="428">
+        <v>25</v>
+      </c>
+      <c r="F5" s="429" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="361"/>
+      <c r="B6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="285" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="312">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="355"/>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F6" s="285" t="s">
         <v>12</v>
@@ -3209,41 +3224,44 @@
       <c r="G6" s="312">
         <v>1</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="355"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="361"/>
+      <c r="B7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10">
+        <v>20</v>
+      </c>
+      <c r="F7" s="285" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="361"/>
+      <c r="B8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>25</v>
-      </c>
-      <c r="F7" s="286" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
-      <c r="B8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="12">
-        <v>3</v>
       </c>
       <c r="F8" s="286" t="s">
         <v>12</v>
@@ -3252,19 +3270,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="355"/>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="361"/>
       <c r="B9" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="286" t="s">
         <v>12</v>
@@ -3273,143 +3291,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="365" t="s">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="361"/>
+      <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="286" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="381" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="C11" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="101">
+        <v>20</v>
+      </c>
+      <c r="F11" s="287" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="382"/>
+      <c r="B12" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="101">
+      <c r="C12" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="103">
         <v>20</v>
       </c>
-      <c r="F10" s="287" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="366"/>
-      <c r="B11" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="103" t="s">
+      <c r="F12" s="288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="373" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="289" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="361"/>
+      <c r="B14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="103">
-        <v>20</v>
-      </c>
-      <c r="F11" s="288" t="s">
+      <c r="E14" s="14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="356" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="G14" s="314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="361"/>
+      <c r="B15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13">
-        <v>20</v>
-      </c>
-      <c r="F12" s="289" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="355"/>
-      <c r="B13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="14">
-        <v>10</v>
-      </c>
-      <c r="F13" s="290" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="355"/>
-      <c r="B14" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>24</v>
       </c>
-      <c r="F14" s="290" t="s">
+      <c r="F15" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="355"/>
-      <c r="B15" s="26" t="s">
+      <c r="G15" s="314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="361"/>
+      <c r="B16" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14">
-        <v>10</v>
-      </c>
-      <c r="F15" s="290" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="355"/>
-      <c r="B16" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
@@ -3424,248 +3442,248 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="357"/>
-      <c r="B17" s="49" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="361"/>
+      <c r="B17" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="50" t="s">
+      <c r="C17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14">
+        <v>10</v>
+      </c>
+      <c r="F17" s="290" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="362"/>
+      <c r="B18" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="236" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="358" t="s">
+      <c r="G18" s="314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="374" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B19" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="281"/>
-      <c r="F18" s="291" t="s">
+      <c r="E19" s="281"/>
+      <c r="F19" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="359"/>
-      <c r="B19" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="97" t="s">
+      <c r="G19" s="315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="375"/>
+      <c r="B20" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="97">
+        <v>20</v>
+      </c>
+      <c r="F20" s="292" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="376"/>
+      <c r="B21" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="F21" s="293" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="383" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="100">
+        <v>10</v>
+      </c>
+      <c r="F22" s="294" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="362"/>
+      <c r="B23" s="343" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="97">
-        <v>20</v>
-      </c>
-      <c r="F19" s="292" t="s">
+      <c r="E23" s="100">
+        <v>50</v>
+      </c>
+      <c r="F23" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="360"/>
-      <c r="B20" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="293" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="367" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="100" t="s">
+      <c r="G23" s="316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="377" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E24" s="24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="295" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="378"/>
+      <c r="B25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="16">
+        <v>30</v>
+      </c>
+      <c r="F25" s="296" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="365" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="17">
         <v>10</v>
       </c>
-      <c r="F21" s="294" t="s">
+      <c r="F26" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="357"/>
-      <c r="B22" s="343" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="100">
+      <c r="G26" s="318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="361"/>
+      <c r="B27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="19">
         <v>50</v>
       </c>
-      <c r="F22" s="294" t="s">
+      <c r="F27" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="361" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="24">
-        <v>5</v>
-      </c>
-      <c r="F23" s="295" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="362"/>
-      <c r="B24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="16">
-        <v>30</v>
-      </c>
-      <c r="F24" s="296" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="371" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="17">
-        <v>10</v>
-      </c>
-      <c r="F25" s="297" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="355"/>
-      <c r="B26" s="18" t="s">
+      <c r="G27" s="318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="361"/>
+      <c r="B28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="19">
-        <v>50</v>
-      </c>
-      <c r="F26" s="298" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="355"/>
-      <c r="B27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="21">
-        <v>50</v>
-      </c>
-      <c r="F27" s="299" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="355"/>
-      <c r="B28" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>19</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>15</v>
@@ -3680,389 +3698,410 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="357"/>
-      <c r="B29" s="90" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="361"/>
+      <c r="B29" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="21">
+        <v>50</v>
+      </c>
+      <c r="F29" s="299" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="362"/>
+      <c r="B30" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="91">
+        <v>5</v>
+      </c>
+      <c r="F30" s="229" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="366" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="35">
+        <v>20</v>
+      </c>
+      <c r="F31" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="367"/>
+      <c r="B32" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="123">
+        <v>3</v>
+      </c>
+      <c r="F32" s="301" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="368"/>
+      <c r="B33" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="93">
+        <v>15</v>
+      </c>
+      <c r="F33" s="302" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="369" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="8">
+        <v>20</v>
+      </c>
+      <c r="F34" s="284" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="370"/>
+      <c r="B35" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="95">
+        <v>20</v>
+      </c>
+      <c r="F35" s="303" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="371"/>
+      <c r="B36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="12">
+        <v>25</v>
+      </c>
+      <c r="F36" s="286" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="379" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="36">
+        <v>24</v>
+      </c>
+      <c r="F37" s="304" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="380"/>
+      <c r="B38" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C38" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="22">
+        <v>50</v>
+      </c>
+      <c r="F38" s="305" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="327" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="38">
+        <v>50</v>
+      </c>
+      <c r="F39" s="306" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="363" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="106">
+        <v>10</v>
+      </c>
+      <c r="F40" s="307" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="364"/>
+      <c r="B41" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="108">
         <v>20</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="F41" s="308" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="360" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="105">
+        <v>50</v>
+      </c>
+      <c r="F42" s="309" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="361"/>
+      <c r="B43" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="91">
+      <c r="E43" s="30">
         <v>5</v>
       </c>
-      <c r="F29" s="229" t="s">
+      <c r="F43" s="310" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="361"/>
+      <c r="B44" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="32">
+        <v>3</v>
+      </c>
+      <c r="F44" s="310" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="362"/>
+      <c r="B45" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="372" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="35" t="s">
+      <c r="G45" s="324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="35">
-        <v>20</v>
-      </c>
-      <c r="F30" s="300" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="373"/>
-      <c r="B31" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="123" t="s">
+      <c r="E46" s="40">
         <v>11</v>
       </c>
-      <c r="E31" s="123">
-        <v>3</v>
-      </c>
-      <c r="F31" s="301" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="374"/>
-      <c r="B32" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="93">
-        <v>15</v>
-      </c>
-      <c r="F32" s="302" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="375" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="8">
-        <v>20</v>
-      </c>
-      <c r="F33" s="284" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="376"/>
-      <c r="B34" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="95">
-        <v>20</v>
-      </c>
-      <c r="F34" s="303" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="377"/>
-      <c r="B35" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="12">
-        <v>25</v>
-      </c>
-      <c r="F35" s="286" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="363" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="36">
-        <v>24</v>
-      </c>
-      <c r="F36" s="304" t="s">
+      <c r="F46" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="364"/>
-      <c r="B37" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="22">
-        <v>50</v>
-      </c>
-      <c r="F37" s="305" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="327" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="38">
-        <v>50</v>
-      </c>
-      <c r="F38" s="306" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="369" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="106">
-        <v>10</v>
-      </c>
-      <c r="F39" s="307" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="370"/>
-      <c r="B40" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="108">
-        <v>20</v>
-      </c>
-      <c r="F40" s="308" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="368" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="105">
-        <v>50</v>
-      </c>
-      <c r="F41" s="309" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="355"/>
-      <c r="B42" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="30">
-        <v>5</v>
-      </c>
-      <c r="F42" s="310" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="355"/>
-      <c r="B43" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="32">
-        <v>3</v>
-      </c>
-      <c r="F43" s="310" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="357"/>
-      <c r="B44" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="310" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="121" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="40">
-        <v>11</v>
-      </c>
-      <c r="F45" s="311" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="325">
+      <c r="G46" s="325">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4073,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68635C62-1974-466F-A67D-D58C5A3A6256}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,7 +4154,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="372" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="110" t="s">
@@ -4141,9 +4180,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="355"/>
+      <c r="A3" s="361"/>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>10</v>
@@ -4165,12 +4204,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
+      <c r="A4" s="361"/>
       <c r="B4" s="351" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="352" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="352" t="s">
         <v>9</v>
@@ -4186,18 +4225,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
+      <c r="A5" s="361"/>
       <c r="B5" s="351" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="352" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="352" t="s">
-        <v>131</v>
-      </c>
       <c r="D5" s="352" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" s="352">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F5" s="353" t="s">
         <v>12</v>
@@ -4205,9 +4244,9 @@
       <c r="G5" s="312"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="355"/>
+      <c r="A6" s="361"/>
       <c r="B6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>13</v>
@@ -4229,9 +4268,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="355"/>
+      <c r="A7" s="361"/>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>14</v>
@@ -4250,12 +4289,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
+      <c r="A8" s="361"/>
       <c r="B8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>15</v>
@@ -4271,12 +4310,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="355"/>
+      <c r="A9" s="361"/>
       <c r="B9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>11</v>
@@ -4292,12 +4331,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="355"/>
+      <c r="A10" s="361"/>
       <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
@@ -4313,14 +4352,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="378" t="s">
+      <c r="A11" s="386" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="330" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="330" t="s">
-        <v>121</v>
-      </c>
       <c r="C11" s="331" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="331" t="s">
         <v>11</v>
@@ -4329,19 +4368,19 @@
         <v>20</v>
       </c>
       <c r="F11" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="279" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="388"/>
+      <c r="B12" s="334" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="G11" s="333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="279" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="379"/>
-      <c r="B12" s="334" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>106</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>15</v>
@@ -4357,11 +4396,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="373" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="280" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="281" t="s">
         <v>57</v>
@@ -4373,40 +4412,40 @@
         <v>20</v>
       </c>
       <c r="F13" s="336" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="333">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="426" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="355"/>
-      <c r="B14" s="422" t="s">
+    <row r="14" spans="1:8" s="359" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="361"/>
+      <c r="B14" s="355" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="356" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="356" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="356">
+        <v>10</v>
+      </c>
+      <c r="F14" s="357" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="361"/>
+      <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="423" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="423" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="423">
-        <v>10</v>
-      </c>
-      <c r="F14" s="424" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="355"/>
-      <c r="B15" s="26" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>9</v>
@@ -4422,12 +4461,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="355"/>
-      <c r="B16" s="421" t="s">
+      <c r="A16" s="361"/>
+      <c r="B16" s="354" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="348" t="s">
         <v>88</v>
-      </c>
-      <c r="C16" s="348" t="s">
-        <v>89</v>
       </c>
       <c r="D16" s="348" t="s">
         <v>11</v>
@@ -4443,9 +4482,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="355"/>
-      <c r="B17" s="421" t="s">
-        <v>68</v>
+      <c r="A17" s="361"/>
+      <c r="B17" s="354" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="348" t="s">
         <v>42</v>
@@ -4464,12 +4503,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="279" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="357"/>
+      <c r="A18" s="362"/>
       <c r="B18" s="337" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>29</v>
@@ -4483,14 +4522,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="358" t="s">
+      <c r="A19" s="374" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>54</v>
@@ -4504,12 +4543,12 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="359"/>
+      <c r="A20" s="375"/>
       <c r="B20" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="97" t="s">
         <v>15</v>
@@ -4525,7 +4564,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="360"/>
+      <c r="A21" s="376"/>
       <c r="B21" s="98" t="s">
         <v>51</v>
       </c>
@@ -4536,24 +4575,24 @@
         <v>41</v>
       </c>
       <c r="E21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="293" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="293" t="s">
-        <v>78</v>
-      </c>
       <c r="G21" s="315">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="279" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="378" t="s">
+      <c r="A22" s="386" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="280" t="s">
-        <v>126</v>
-      </c>
       <c r="C22" s="281" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="281" t="s">
         <v>11</v>
@@ -4569,12 +4608,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="279" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="380"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="350" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="281" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="281" t="s">
         <v>15</v>
@@ -4590,7 +4629,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="378" t="s">
+      <c r="A24" s="386" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="346" t="s">
@@ -4613,7 +4652,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="279" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="383"/>
+      <c r="A25" s="387"/>
       <c r="B25" s="347" t="s">
         <v>26</v>
       </c>
@@ -4634,11 +4673,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="371" t="s">
+      <c r="A26" s="365" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>16</v>
@@ -4650,16 +4689,16 @@
         <v>10</v>
       </c>
       <c r="F26" s="297" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="G26" s="318">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="355"/>
+      <c r="A27" s="361"/>
       <c r="B27" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>48</v>
@@ -4678,9 +4717,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="355"/>
+      <c r="A28" s="361"/>
       <c r="B28" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>18</v>
@@ -4699,9 +4738,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="355"/>
+      <c r="A29" s="361"/>
       <c r="B29" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>19</v>
@@ -4720,9 +4759,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="357"/>
+      <c r="A30" s="362"/>
       <c r="B30" s="90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="91" t="s">
         <v>20</v>
@@ -4741,14 +4780,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="372" t="s">
-        <v>94</v>
+      <c r="A31" s="366" t="s">
+        <v>93</v>
       </c>
       <c r="B31" s="280" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="281" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="281" t="s">
-        <v>91</v>
       </c>
       <c r="D31" s="281" t="s">
         <v>11</v>
@@ -4757,19 +4796,19 @@
         <v>20</v>
       </c>
       <c r="F31" s="336" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="333">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="373"/>
+      <c r="A32" s="367"/>
       <c r="B32" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="123" t="s">
         <v>113</v>
-      </c>
-      <c r="C32" s="123" t="s">
-        <v>114</v>
       </c>
       <c r="D32" s="123" t="s">
         <v>11</v>
@@ -4785,12 +4824,12 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="279" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="374"/>
+      <c r="A33" s="368"/>
       <c r="B33" s="338" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="339" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="339" t="s">
         <v>15</v>
@@ -4806,14 +4845,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="375" t="s">
+      <c r="A34" s="369" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="280" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="280" t="s">
+      <c r="C34" s="281" t="s">
         <v>96</v>
-      </c>
-      <c r="C34" s="281" t="s">
-        <v>97</v>
       </c>
       <c r="D34" s="281" t="s">
         <v>11</v>
@@ -4822,19 +4861,19 @@
         <v>20</v>
       </c>
       <c r="F34" s="336" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" s="333">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="279" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="376"/>
+      <c r="A35" s="370"/>
       <c r="B35" s="341" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="282" t="s">
         <v>98</v>
-      </c>
-      <c r="C35" s="282" t="s">
-        <v>99</v>
       </c>
       <c r="D35" s="282" t="s">
         <v>15</v>
@@ -4850,12 +4889,12 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="377"/>
+      <c r="A36" s="371"/>
       <c r="B36" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>9</v>
@@ -4871,7 +4910,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="378" t="s">
+      <c r="A37" s="386" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="280" t="s">
@@ -4894,9 +4933,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="279" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="383"/>
+      <c r="A38" s="387"/>
       <c r="B38" s="344" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>34</v>
@@ -4919,10 +4958,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="330" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="331" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="331" t="s">
-        <v>82</v>
       </c>
       <c r="D39" s="331" t="s">
         <v>9</v>
@@ -4938,14 +4977,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="279" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="381" t="s">
-        <v>111</v>
+      <c r="A40" s="384" t="s">
+        <v>110</v>
       </c>
       <c r="B40" s="280" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="281" t="s">
         <v>107</v>
-      </c>
-      <c r="C40" s="281" t="s">
-        <v>108</v>
       </c>
       <c r="D40" s="281" t="s">
         <v>11</v>
@@ -4954,19 +4993,19 @@
         <v>10</v>
       </c>
       <c r="F40" s="336" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="333">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="279" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="382"/>
+      <c r="A41" s="385"/>
       <c r="B41" s="337" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>15</v>
@@ -4982,7 +5021,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="368" t="s">
+      <c r="A42" s="360" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="120" t="s">
@@ -5005,12 +5044,12 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="355"/>
+      <c r="A43" s="361"/>
       <c r="B43" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>11</v>
@@ -5026,12 +5065,12 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="355"/>
+      <c r="A44" s="361"/>
       <c r="B44" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>115</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>116</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>11</v>
@@ -5047,7 +5086,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="357"/>
+      <c r="A45" s="362"/>
       <c r="B45" s="31" t="s">
         <v>39</v>
       </c>
@@ -5090,6 +5129,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A24:A25"/>
@@ -5097,11 +5141,6 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5171,143 +5210,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="417"/>
-      <c r="B1" s="418"/>
-      <c r="C1" s="395" t="s">
+      <c r="A1" s="416"/>
+      <c r="B1" s="417"/>
+      <c r="C1" s="394" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="396" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="397"/>
-      <c r="M1" s="398" t="s">
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="395" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="396"/>
+      <c r="M1" s="397" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="392"/>
-      <c r="O1" s="392"/>
-      <c r="P1" s="392"/>
-      <c r="Q1" s="392"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="399" t="s">
+      <c r="N1" s="391"/>
+      <c r="O1" s="391"/>
+      <c r="P1" s="391"/>
+      <c r="Q1" s="391"/>
+      <c r="R1" s="392"/>
+      <c r="S1" s="398" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="400"/>
-      <c r="U1" s="401"/>
+      <c r="T1" s="399"/>
+      <c r="U1" s="400"/>
       <c r="V1" s="237" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="402" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="403"/>
-      <c r="Y1" s="404" t="s">
+      <c r="X1" s="402"/>
+      <c r="Y1" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="392"/>
-      <c r="AA1" s="392"/>
-      <c r="AB1" s="392"/>
-      <c r="AC1" s="393"/>
-      <c r="AD1" s="405" t="s">
+      <c r="Z1" s="391"/>
+      <c r="AA1" s="391"/>
+      <c r="AB1" s="391"/>
+      <c r="AC1" s="392"/>
+      <c r="AD1" s="404" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="405"/>
+      <c r="AF1" s="406"/>
+      <c r="AG1" s="407" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="406"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="408" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH1" s="409"/>
-      <c r="AI1" s="410"/>
-      <c r="AJ1" s="411" t="s">
+      <c r="AH1" s="408"/>
+      <c r="AI1" s="409"/>
+      <c r="AJ1" s="410" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="412"/>
-      <c r="AL1" s="413" t="s">
+      <c r="AK1" s="411"/>
+      <c r="AL1" s="412" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="414"/>
-      <c r="AN1" s="415" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO1" s="416"/>
-      <c r="AP1" s="391" t="s">
+      <c r="AM1" s="413"/>
+      <c r="AN1" s="414" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" s="415"/>
+      <c r="AP1" s="390" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="392"/>
-      <c r="AR1" s="392"/>
-      <c r="AS1" s="393"/>
+      <c r="AQ1" s="391"/>
+      <c r="AR1" s="391"/>
+      <c r="AS1" s="392"/>
       <c r="AT1" s="196" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="70" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="419"/>
-      <c r="B2" s="420"/>
+      <c r="A2" s="418"/>
+      <c r="B2" s="419"/>
       <c r="C2" s="154" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="155" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="155" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="H2" s="155" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="155" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="217" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="249" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="217" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="249" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="248" t="s">
+      <c r="N2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="O2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="P2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="236" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="236" t="s">
-        <v>67</v>
-      </c>
       <c r="S2" s="246" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T2" s="159" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U2" s="247" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="238" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W2" s="234" t="s">
         <v>24</v>
@@ -5316,64 +5355,64 @@
         <v>26</v>
       </c>
       <c r="Y2" s="233" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="91" t="s">
+      <c r="AA2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="91" t="s">
+      <c r="AB2" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="91" t="s">
+      <c r="AC2" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="229" t="s">
-        <v>73</v>
-      </c>
       <c r="AD2" s="231" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE2" s="164" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF2" s="232" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="230" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH2" s="155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI2" s="217" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="227" t="s">
         <v>32</v>
       </c>
       <c r="AK2" s="228" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" s="220" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="AL2" s="220" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" s="199" t="s">
-        <v>75</v>
-      </c>
       <c r="AN2" s="209" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO2" s="109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP2" s="201" t="s">
         <v>36</v>
       </c>
       <c r="AQ2" s="170" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AR2" s="170" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AS2" s="194" t="s">
         <v>39</v>
@@ -5383,7 +5422,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="372" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="128" t="s">
@@ -5435,9 +5474,9 @@
       <c r="AT3" s="84"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
+      <c r="A4" s="361"/>
       <c r="B4" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="45">
         <v>1</v>
@@ -5487,7 +5526,7 @@
       <c r="AT4" s="57"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
+      <c r="A5" s="361"/>
       <c r="B5" s="129" t="s">
         <v>23</v>
       </c>
@@ -5539,9 +5578,9 @@
       <c r="AT5" s="57"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="355"/>
+      <c r="A6" s="361"/>
       <c r="B6" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
@@ -5591,9 +5630,9 @@
       <c r="AT6" s="57"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="355"/>
+      <c r="A7" s="361"/>
       <c r="B7" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="45">
         <v>1</v>
@@ -5643,9 +5682,9 @@
       <c r="AT7" s="57"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
+      <c r="A8" s="361"/>
       <c r="B8" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="45">
         <v>1</v>
@@ -5695,9 +5734,9 @@
       <c r="AT8" s="57"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="355"/>
+      <c r="A9" s="361"/>
       <c r="B9" s="130" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="45">
         <v>1</v>
@@ -5747,9 +5786,9 @@
       <c r="AT9" s="57"/>
     </row>
     <row r="10" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="357"/>
+      <c r="A10" s="362"/>
       <c r="B10" s="151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="46">
         <v>1</v>
@@ -5799,11 +5838,11 @@
       <c r="AT10" s="58"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="384" t="s">
+      <c r="A11" s="420" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="149" t="s">
         <v>120</v>
-      </c>
-      <c r="B11" s="149" t="s">
-        <v>121</v>
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="54"/>
@@ -5851,9 +5890,9 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="384"/>
+      <c r="A12" s="420"/>
       <c r="B12" s="172" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="72"/>
@@ -5903,11 +5942,11 @@
       <c r="AT12" s="78"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="373" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="44"/>
@@ -5955,9 +5994,9 @@
       <c r="AT13" s="56"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="355"/>
+      <c r="A14" s="361"/>
       <c r="B14" s="132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="42"/>
@@ -6007,9 +6046,9 @@
       <c r="AT14" s="57"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="355"/>
+      <c r="A15" s="361"/>
       <c r="B15" s="132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="42"/>
@@ -6059,9 +6098,9 @@
       <c r="AT15" s="57"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="355"/>
+      <c r="A16" s="361"/>
       <c r="B16" s="132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="42"/>
@@ -6111,9 +6150,9 @@
       <c r="AT16" s="57"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="355"/>
+      <c r="A17" s="361"/>
       <c r="B17" s="132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="42"/>
@@ -6163,9 +6202,9 @@
       <c r="AT17" s="57"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="357"/>
+      <c r="A18" s="362"/>
       <c r="B18" s="133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="47"/>
@@ -6215,11 +6254,11 @@
       <c r="AT18" s="58"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="359" t="s">
+      <c r="A19" s="375" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="174" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="54"/>
@@ -6267,9 +6306,9 @@
       <c r="AT19" s="84"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="359"/>
+      <c r="A20" s="375"/>
       <c r="B20" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="42"/>
@@ -6319,7 +6358,7 @@
       <c r="AT20" s="57"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="359"/>
+      <c r="A21" s="375"/>
       <c r="B21" s="175" t="s">
         <v>51</v>
       </c>
@@ -6372,10 +6411,10 @@
     </row>
     <row r="22" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="178" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="178" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="179"/>
       <c r="D22" s="180"/>
@@ -6423,7 +6462,7 @@
       <c r="AT22" s="198"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="424" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="176" t="s">
@@ -6475,7 +6514,7 @@
       <c r="AT23" s="84"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="362"/>
+      <c r="A24" s="378"/>
       <c r="B24" s="183" t="s">
         <v>26</v>
       </c>
@@ -6527,11 +6566,11 @@
       <c r="AT24" s="78"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="371" t="s">
+      <c r="A25" s="365" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
@@ -6579,9 +6618,9 @@
       <c r="AT25" s="56"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="355"/>
+      <c r="A26" s="361"/>
       <c r="B26" s="136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="42"/>
@@ -6631,9 +6670,9 @@
       <c r="AT26" s="57"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="355"/>
+      <c r="A27" s="361"/>
       <c r="B27" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="42"/>
@@ -6683,9 +6722,9 @@
       <c r="AT27" s="57"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A28" s="355"/>
+      <c r="A28" s="361"/>
       <c r="B28" s="137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="42"/>
@@ -6735,9 +6774,9 @@
       <c r="AT28" s="57"/>
     </row>
     <row r="29" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="357"/>
+      <c r="A29" s="362"/>
       <c r="B29" s="138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="47"/>
@@ -6787,11 +6826,11 @@
       <c r="AT29" s="58"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" s="373" t="s">
-        <v>94</v>
+      <c r="A30" s="367" t="s">
+        <v>93</v>
       </c>
       <c r="B30" s="184" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="54"/>
@@ -6839,9 +6878,9 @@
       <c r="AT30" s="84"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="373"/>
+      <c r="A31" s="367"/>
       <c r="B31" s="139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="42"/>
@@ -6891,9 +6930,9 @@
       <c r="AT31" s="57"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="373"/>
+      <c r="A32" s="367"/>
       <c r="B32" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="72"/>
@@ -6943,11 +6982,11 @@
       <c r="AT32" s="78"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A33" s="354" t="s">
+      <c r="A33" s="372" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="140" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="140" t="s">
-        <v>96</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
@@ -6995,9 +7034,9 @@
       <c r="AT33" s="56"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A34" s="389"/>
+      <c r="A34" s="425"/>
       <c r="B34" s="141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="42"/>
@@ -7047,9 +7086,9 @@
       <c r="AT34" s="57"/>
     </row>
     <row r="35" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="390"/>
+      <c r="A35" s="426"/>
       <c r="B35" s="151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="47"/>
@@ -7099,7 +7138,7 @@
       <c r="AT35" s="58"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A36" s="385" t="s">
+      <c r="A36" s="421" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="186" t="s">
@@ -7151,9 +7190,9 @@
       <c r="AT36" s="84"/>
     </row>
     <row r="37" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="364"/>
+      <c r="A37" s="380"/>
       <c r="B37" s="142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="72"/>
@@ -7203,11 +7242,11 @@
       <c r="AT37" s="78"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A38" s="386" t="s">
+      <c r="A38" s="422" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="44"/>
@@ -7255,9 +7294,9 @@
       <c r="AT38" s="56"/>
     </row>
     <row r="39" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="387"/>
+      <c r="A39" s="423"/>
       <c r="B39" s="188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="47"/>
@@ -7307,11 +7346,11 @@
       <c r="AT39" s="58"/>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" s="394" t="s">
-        <v>111</v>
+      <c r="A40" s="393" t="s">
+        <v>110</v>
       </c>
       <c r="B40" s="187" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="54"/>
@@ -7359,9 +7398,9 @@
       <c r="AT40" s="84"/>
     </row>
     <row r="41" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="394"/>
+      <c r="A41" s="393"/>
       <c r="B41" s="189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="72"/>
@@ -7411,7 +7450,7 @@
       <c r="AT41" s="78"/>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" s="368" t="s">
+      <c r="A42" s="360" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="192" t="s">
@@ -7463,9 +7502,9 @@
       <c r="AT42" s="56"/>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A43" s="355"/>
+      <c r="A43" s="361"/>
       <c r="B43" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="42"/>
@@ -7515,9 +7554,9 @@
       <c r="AT43" s="57"/>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" s="355"/>
+      <c r="A44" s="361"/>
       <c r="B44" s="145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="42"/>
@@ -7567,7 +7606,7 @@
       <c r="AT44" s="57"/>
     </row>
     <row r="45" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="357"/>
+      <c r="A45" s="362"/>
       <c r="B45" s="193" t="s">
         <v>39</v>
       </c>
@@ -7672,6 +7711,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A45"/>
@@ -7688,15 +7736,6 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7735,13 +7774,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="417"/>
-      <c r="B1" s="418"/>
+      <c r="A1" s="416"/>
+      <c r="B1" s="417"/>
       <c r="C1" s="252" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="271" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" s="272" t="s">
         <v>56</v>
@@ -7750,7 +7789,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="273" t="s">
         <v>6</v>
@@ -7759,10 +7798,10 @@
         <v>31</v>
       </c>
       <c r="J1" s="254" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="255" t="s">
         <v>94</v>
-      </c>
-      <c r="K1" s="255" t="s">
-        <v>95</v>
       </c>
       <c r="L1" s="275" t="s">
         <v>7</v>
@@ -7771,7 +7810,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="277" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O1" s="278" t="s">
         <v>35</v>
@@ -7781,43 +7820,43 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="70" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="419"/>
-      <c r="B2" s="420"/>
+      <c r="A2" s="418"/>
+      <c r="B2" s="419"/>
       <c r="C2" s="154" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="156" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="158" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="161" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="162" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="163" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K2" s="165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" s="166" t="s">
         <v>32</v>
       </c>
       <c r="M2" s="167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" s="168" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" s="169" t="s">
         <v>36</v>
@@ -7827,7 +7866,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="372" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="128" t="s">
@@ -7849,9 +7888,9 @@
       <c r="P3" s="84"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
+      <c r="A4" s="361"/>
       <c r="B4" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="45">
         <v>1</v>
@@ -7871,7 +7910,7 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
+      <c r="A5" s="361"/>
       <c r="B5" s="129" t="s">
         <v>23</v>
       </c>
@@ -7893,9 +7932,9 @@
       <c r="P5" s="57"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="355"/>
+      <c r="A6" s="361"/>
       <c r="B6" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
@@ -7915,9 +7954,9 @@
       <c r="P6" s="57"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="355"/>
+      <c r="A7" s="361"/>
       <c r="B7" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="45">
         <v>1</v>
@@ -7937,9 +7976,9 @@
       <c r="P7" s="57"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
+      <c r="A8" s="361"/>
       <c r="B8" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="45">
         <v>1</v>
@@ -7959,9 +7998,9 @@
       <c r="P8" s="57"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="355"/>
+      <c r="A9" s="361"/>
       <c r="B9" s="130" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="45">
         <v>1</v>
@@ -7981,9 +8020,9 @@
       <c r="P9" s="57"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="357"/>
+      <c r="A10" s="362"/>
       <c r="B10" s="151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="46">
         <v>1</v>
@@ -8003,11 +8042,11 @@
       <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="384" t="s">
+      <c r="A11" s="420" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="149" t="s">
         <v>120</v>
-      </c>
-      <c r="B11" s="149" t="s">
-        <v>121</v>
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
@@ -8025,9 +8064,9 @@
       <c r="P11" s="84"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="384"/>
+      <c r="A12" s="420"/>
       <c r="B12" s="172" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="74">
@@ -8047,11 +8086,11 @@
       <c r="P12" s="78"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="373" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="59"/>
@@ -8069,9 +8108,9 @@
       <c r="P13" s="56"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="355"/>
+      <c r="A14" s="361"/>
       <c r="B14" s="132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="60"/>
@@ -8091,9 +8130,9 @@
       <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="355"/>
+      <c r="A15" s="361"/>
       <c r="B15" s="132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="60"/>
@@ -8113,9 +8152,9 @@
       <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="355"/>
+      <c r="A16" s="361"/>
       <c r="B16" s="132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="60"/>
@@ -8135,9 +8174,9 @@
       <c r="P16" s="57"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="355"/>
+      <c r="A17" s="361"/>
       <c r="B17" s="132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="60"/>
@@ -8157,9 +8196,9 @@
       <c r="P17" s="57"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="357"/>
+      <c r="A18" s="362"/>
       <c r="B18" s="133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="61"/>
@@ -8179,11 +8218,11 @@
       <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="359" t="s">
+      <c r="A19" s="375" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="174" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
@@ -8201,9 +8240,9 @@
       <c r="P19" s="84"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="359"/>
+      <c r="A20" s="375"/>
       <c r="B20" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="60"/>
@@ -8223,7 +8262,7 @@
       <c r="P20" s="57"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="359"/>
+      <c r="A21" s="375"/>
       <c r="B21" s="175" t="s">
         <v>51</v>
       </c>
@@ -8246,10 +8285,10 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="178" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="178" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="179"/>
       <c r="D22" s="270"/>
@@ -8267,7 +8306,7 @@
       <c r="P22" s="198"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="424" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="176" t="s">
@@ -8289,7 +8328,7 @@
       <c r="P23" s="84"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="362"/>
+      <c r="A24" s="378"/>
       <c r="B24" s="183" t="s">
         <v>26</v>
       </c>
@@ -8311,11 +8350,11 @@
       <c r="P24" s="78"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="371" t="s">
+      <c r="A25" s="365" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="59"/>
@@ -8333,9 +8372,9 @@
       <c r="P25" s="56"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="355"/>
+      <c r="A26" s="361"/>
       <c r="B26" s="136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="60"/>
@@ -8355,9 +8394,9 @@
       <c r="P26" s="57"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="355"/>
+      <c r="A27" s="361"/>
       <c r="B27" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="60"/>
@@ -8377,9 +8416,9 @@
       <c r="P27" s="57"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="355"/>
+      <c r="A28" s="361"/>
       <c r="B28" s="137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="60"/>
@@ -8399,9 +8438,9 @@
       <c r="P28" s="57"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="357"/>
+      <c r="A29" s="362"/>
       <c r="B29" s="138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="61"/>
@@ -8421,11 +8460,11 @@
       <c r="P29" s="58"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="373" t="s">
-        <v>94</v>
+      <c r="A30" s="367" t="s">
+        <v>93</v>
       </c>
       <c r="B30" s="184" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="80"/>
@@ -8443,9 +8482,9 @@
       <c r="P30" s="84"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="373"/>
+      <c r="A31" s="367"/>
       <c r="B31" s="139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="60"/>
@@ -8465,9 +8504,9 @@
       <c r="P31" s="57"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="373"/>
+      <c r="A32" s="367"/>
       <c r="B32" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="74"/>
@@ -8487,11 +8526,11 @@
       <c r="P32" s="78"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="354" t="s">
+      <c r="A33" s="372" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="140" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="140" t="s">
-        <v>96</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="59"/>
@@ -8509,9 +8548,9 @@
       <c r="P33" s="56"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="389"/>
+      <c r="A34" s="425"/>
       <c r="B34" s="141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="60"/>
@@ -8531,9 +8570,9 @@
       <c r="P34" s="57"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="390"/>
+      <c r="A35" s="426"/>
       <c r="B35" s="151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="61"/>
@@ -8553,7 +8592,7 @@
       <c r="P35" s="58"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="385" t="s">
+      <c r="A36" s="421" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="186" t="s">
@@ -8575,9 +8614,9 @@
       <c r="P36" s="84"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="364"/>
+      <c r="A37" s="380"/>
       <c r="B37" s="142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="74"/>
@@ -8597,11 +8636,11 @@
       <c r="P37" s="78"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="386" t="s">
+      <c r="A38" s="422" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="59"/>
@@ -8619,9 +8658,9 @@
       <c r="P38" s="56"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="387"/>
+      <c r="A39" s="423"/>
       <c r="B39" s="188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="61"/>
@@ -8641,11 +8680,11 @@
       <c r="P39" s="58"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="394" t="s">
-        <v>111</v>
+      <c r="A40" s="393" t="s">
+        <v>110</v>
       </c>
       <c r="B40" s="187" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="80"/>
@@ -8663,9 +8702,9 @@
       <c r="P40" s="84"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="394"/>
+      <c r="A41" s="393"/>
       <c r="B41" s="189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="74"/>
@@ -8685,7 +8724,7 @@
       <c r="P41" s="78"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="368" t="s">
+      <c r="A42" s="360" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="192" t="s">
@@ -8707,9 +8746,9 @@
       <c r="P42" s="56"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="355"/>
+      <c r="A43" s="361"/>
       <c r="B43" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="60"/>
@@ -8729,9 +8768,9 @@
       <c r="P43" s="57"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="355"/>
+      <c r="A44" s="361"/>
       <c r="B44" s="145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="60"/>
@@ -8751,7 +8790,7 @@
       <c r="P44" s="57"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="357"/>
+      <c r="A45" s="362"/>
       <c r="B45" s="193" t="s">
         <v>39</v>
       </c>
